--- a/Robots vs Dinosaurs.xlsx
+++ b/Robots vs Dinosaurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilo\OneDrive\Desktop\devCode\Projects\Robots vs Dinosaurs\Robots vs Dinosaurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03B34EF-E40A-46F2-BE48-8C7050F2E04B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5EA52F-D2A6-447D-8D03-EF2479404461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{23FF6517-E825-499D-825F-7E700F446ED4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Program</t>
   </si>
@@ -126,6 +126,24 @@
   </si>
   <si>
     <t>swordStrike</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>attackDinoWithSword</t>
+  </si>
+  <si>
+    <t>AttackRobot</t>
+  </si>
+  <si>
+    <t>initiateBattle</t>
+  </si>
+  <si>
+    <t>roboList</t>
+  </si>
+  <si>
+    <t>dinoList</t>
   </si>
 </sst>
 </file>
@@ -196,10 +214,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -515,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97F58A5-F757-4410-9125-6F111B12E440}">
-  <dimension ref="A3:G13"/>
+  <dimension ref="A3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -609,15 +628,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
@@ -667,6 +686,34 @@
       </c>
       <c r="F13" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
